--- a/content/plataformes/dadesref/entitats/Mancomunitats.xlsx
+++ b/content/plataformes/dadesref/entitats/Mancomunitats.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\___Mancomunitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\portal\content\plataformes\dadesref\entitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE32A87-AE51-4963-B09D-A283F3710F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Mancomunitats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>Nom entitat:</t>
+  </si>
+  <si>
+    <t>Mancomunitats</t>
+  </si>
   <si>
     <t>Codi</t>
   </si>
@@ -50,36 +55,75 @@
     <t>Mancomunitat de la Fontsanta</t>
   </si>
   <si>
-    <t>Mancomunitat de Municipis del Bages per al Sanejament</t>
+    <t>Mancomunitat Penedès-Garraf</t>
+  </si>
+  <si>
+    <t>Mancomunitat Tegar del Garraf</t>
+  </si>
+  <si>
+    <t>Mancomunitat per a l'atenció dels minusvàlids psíquics de la Comarca de l'Anoia</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal Voluntària La Plana</t>
+  </si>
+  <si>
+    <t>Mancomunitat del Bages i del Moianès per l'Aigua</t>
   </si>
   <si>
     <t>Mancomunitat Intermunicipal de la Vall del Tenes</t>
   </si>
   <si>
+    <t>Mancomunitat de Municipis de l'Alt Penedès</t>
+  </si>
+  <si>
     <t>Mancomunitat d'Aguilar de Segarra, Fonollosa i Rajadell</t>
   </si>
   <si>
+    <t>Mancomunitat Intermunicipal d'Aigües de Garriguella, Vilajuïga, Pau i Palau-saverdera</t>
+  </si>
+  <si>
     <t>Mancomunitat Intermunicipal Verge dels Socors</t>
   </si>
   <si>
     <t>Mancomunitat per a Fins d'Instrucció i Cultura d'Alp, Das, Fontanals de Cerdanya i Urús</t>
   </si>
   <si>
+    <t>Mancomunitat del Servei de control de mosquits de la Badia de Roses i del Baix Ter</t>
+  </si>
+  <si>
     <t>Mancomunitat de la Vall de Camprodon</t>
   </si>
   <si>
+    <t>Mancomunitat per a abastament d'aigua potable a la comarca de les Garrigues</t>
+  </si>
+  <si>
     <t>Mancomunitat d'Abastament d'Aigua del Solsonès</t>
   </si>
   <si>
     <t>Mancomunitat de Recollida d'Escombraries de l'Urgellet</t>
   </si>
   <si>
+    <t>Mancomunitat Intermunicipal de Mollerussa-el Palau d'Anglesola</t>
+  </si>
+  <si>
     <t>Mancomunitat de Serveis del Mig Segre</t>
   </si>
   <si>
+    <t>Mancomunitat de Municipis per la promoció de l'Esquí Nòrdic</t>
+  </si>
+  <si>
+    <t>Mancomunitat per a la gestió integral de residus urbans</t>
+  </si>
+  <si>
     <t>Mancomunitat Intermunicipal Deltatres</t>
   </si>
   <si>
+    <t>Mancomunitat de l'Alta Segarra</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal d'Aigües i Serveis del Baix Empordà</t>
+  </si>
+  <si>
     <t>Mancomunitat Sector Territorial de la Pista de Proves de Vehicles l'Albornar</t>
   </si>
   <si>
@@ -92,18 +136,33 @@
     <t>Mancomunitat d'Aigües de la Noguera Alta</t>
   </si>
   <si>
+    <t>Mancomunitat d'Iniciatives pel Desenvolupament Integral del Territori (MIDIT)</t>
+  </si>
+  <si>
     <t>Mancomunitat Intermunicipal per a la Gestió de Residus de l'Alt Urgell Meridional</t>
   </si>
   <si>
+    <t>Mancomunitat del Bisaura i l'Alt Lluçanès</t>
+  </si>
+  <si>
+    <t>MC dels Municipis de Premià de Dalt, Premià de Mar i Vilassar de Dalt per Serv.Deixalleria</t>
+  </si>
+  <si>
     <t>Mancomunitat Intermunicipal del Priorat d'Escaladei DO</t>
   </si>
   <si>
+    <t>MC Intermunicipal de Serveis d'Alella, el Masnou i Teià</t>
+  </si>
+  <si>
     <t>Mancomunitat Intermunicipal de la Conca d'Òdena</t>
   </si>
   <si>
     <t>Mancomunitat Intermunicipal per a l'Abastament d'Aigua de Pinyana</t>
   </si>
   <si>
+    <t>MCI potabilització aigües Barbens, Castellnou de Seana, Ivars d'Urgell i Vila-sana</t>
+  </si>
+  <si>
     <t>Mancomunitat de Municipis Tortosa-Roquetes</t>
   </si>
   <si>
@@ -113,115 +172,58 @@
     <t>Mancomunitat Intermunicipal del Cardener</t>
   </si>
   <si>
+    <t>Mancomunitat de Serveis dels municipis de Fortià i Riumors</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal dels municipis de Foixà, Parlavà, Rupià i Ultramort</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis de Palamós, Calonge i Vall-llobrega</t>
+  </si>
+  <si>
+    <t>Mancomunitat de la Taula del Sénia</t>
+  </si>
+  <si>
+    <t>Mancomunitat del Parc Natural de la Serra de Montsant</t>
+  </si>
+  <si>
+    <t>Mancomunitat d'aigües BERSOLS</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis de les Valls d'Àneu</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis del Galzeran</t>
+  </si>
+  <si>
+    <t>Mancomunitat de la Vall de Llémena</t>
+  </si>
+  <si>
+    <t>Mancomunitat Intermunicipal del Camí Natural de la Noguera Baixa</t>
+  </si>
+  <si>
+    <t>Mancomunitat Gestora dels Recursos Hídrics dels municipis de Salou i de Vila-seca</t>
+  </si>
+  <si>
+    <t>Mancomunitat de Municipis per la Música a les Garrigues</t>
+  </si>
+  <si>
+    <t>Mancomunitat de municipis berguedans per a la biomassa</t>
+  </si>
+  <si>
     <t>No consta</t>
   </si>
   <si>
     <t>Altres/Diversos</t>
   </si>
   <si>
-    <t>Mancomunitat Intermunicipal dels municipis de Foixà, Parlavà, Rupià i Ultramort</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis per la promoció de l'Esquí Nòrdic</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Serveis dels municipis de Fortià i Riumors</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis de les Valls d'Àneu</t>
-  </si>
-  <si>
-    <t>Mancomunitat d'aigües BERSOLS</t>
-  </si>
-  <si>
-    <t>Mancomunitat de municipis berguedans per a la biomassa</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis per la Música a les Garrigues</t>
-  </si>
-  <si>
-    <t>Mancomunitat Gestora dels Recursos Hídrics dels municipis de Salou i de Vila-seca</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis de Palamós, Calonge i Vall-llobrega</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis del Galzeran</t>
-  </si>
-  <si>
-    <t>Mancomunitat de la Vall de Llémena</t>
-  </si>
-  <si>
-    <t>Mancomunitat de la Taula del Sénia</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal d'Aigües de Garriguella, Vilajuïga, Pau i Palau-saverdera</t>
-  </si>
-  <si>
-    <t>Mancomunitat de Municipis de l'Alt Penedès</t>
-  </si>
-  <si>
-    <t>Mancomunitat Penedès-Garraf</t>
-  </si>
-  <si>
-    <t>Mancomunitat d'Iniciatives pel Desenvolupament Integral del Territori (MIDIT)</t>
-  </si>
-  <si>
-    <t>MC dels Municipis de Premià de Dalt, Premià de Mar i Vilassar de Dalt per Serv.Deixalleria</t>
-  </si>
-  <si>
-    <t>Mancomunitat per a l'atenció dels minusvàlids psíquics de la Comarca de l'Anoia</t>
-  </si>
-  <si>
-    <t>Mancomunitat del Servei de control de mosquits de la Badia de Roses i del Baix Ter</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal d'Aigües i Serveis del Baix Empordà</t>
-  </si>
-  <si>
-    <t>MC Intermunicipal de Serveis d'Alella, el Masnou i Teià</t>
-  </si>
-  <si>
-    <t>Mancomunitat del Parc Natural de la Serra de Montsant</t>
-  </si>
-  <si>
-    <t>Mancomunitat Tegar del Garraf</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal del Camí Natural de la Noguera Baixa</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal Voluntària La Plana</t>
-  </si>
-  <si>
-    <t>Mancomunitat Intermunicipal de Mollerussa-el Palau d'Anglesola</t>
-  </si>
-  <si>
-    <t>MCI potabilització aigües Barbens, Castellnou de Seana, Ivars d'Urgell i Vila-sana</t>
-  </si>
-  <si>
-    <t>Mancomunitat per a la gestió integral de residus urbans</t>
-  </si>
-  <si>
-    <t>Mancomunitat del Bisaura i l'Alt Lluçanès</t>
-  </si>
-  <si>
-    <t>Mancomunitat per a abastament d'aigua potable a la comarca de les Garrigues</t>
-  </si>
-  <si>
-    <t>Mancomunitat de l'Alta Segarra</t>
-  </si>
-  <si>
-    <t>Nom entitat:</t>
-  </si>
-  <si>
-    <t>Mancomunitats</t>
+    <t>Mancomunitat Intermun. de Gratallops, Torroja del Priorat, Poboleda i Porrera (TOPOGRAPO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,23 +317,25 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Hoja2" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -348,7 +352,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -383,7 +386,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -397,7 +399,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -416,7 +417,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -440,13 +440,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B59" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B59">
-    <sortCondition ref="A4:A59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:B60" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A3:B60"/>
+  <sortState ref="A4:B60">
+    <sortCondition ref="A3:A60"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="1" name="Codi" dataDxfId="1"/>
+    <tableColumn id="2" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,480 +715,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9000180001</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9000230008</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9001680001</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9001740003</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>9001800000</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9002350006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9002660009</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9003050006</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9003480001</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9003990004</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>9004590004</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>9005000000</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>9005170005</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>9005380001</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>9005690004</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>9006150006</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>9006200000</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>9006360009</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>9006670005</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>9007060009</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>9007130008</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>9007490004</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>9007520002</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>9008110007</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>9008470005</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>9008790004</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>9008980001</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9009300000</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9010000000</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9010170005</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>9010380001</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>9010560009</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>9010690004</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>9010810007</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>9010940003</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>9011080001</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>9011150006</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>9011200000</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>9011360009</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>9011410007</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>9011540003</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>9011670005</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>9011730008</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>9011890004</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>9011920002</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>9012280001</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>9012490004</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9012520002</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>9012650006</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>9012870005</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>9012900000</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>9013040003</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>9013110007</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>9013260009</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>9013320002</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>9999999998</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>9000180001</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>9000230008</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>9001680001</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>9001740003</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>9001800000</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>9002350006</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9002660009</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9003050006</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9003480001</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>9003990004</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>9004590004</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>9005000000</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>9005170005</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>9005380001</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>9005690004</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>9006150006</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>9006200000</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>9006360009</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>9006670005</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>9007060009</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>9007130008</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>9007490004</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>9008110007</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>9008470005</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>9008790004</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>9008980001</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>9009300000</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>9010000000</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>9010170005</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>9010380001</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>9010560009</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>9010690004</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>9010810007</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>9010940003</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>9011080001</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>9011150006</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>9011200000</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>9011360009</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>9011410007</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>9011540003</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>9011670005</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>9011730008</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>9011890004</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>9011920002</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>9012280001</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>9012490004</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>9012520002</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>9012650006</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>9012870005</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>9012900000</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>9013040003</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>9013110007</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>9013260009</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>9013320002</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>9999999998</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
-        <v>9999999999</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1220,8 +1230,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6441149f88b340211fe514883ffe5417">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8071760aad25b486d5975211ba1b5e67" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
@@ -1239,6 +1249,9 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1286,6 +1299,21 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1421,16 +1449,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1444,7 +1472,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2352AE35-38BC-411E-82C4-75100B68F7A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F74DCE85-E342-49BA-89C5-6DE88C0E29C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/content/plataformes/dadesref/entitats/Mancomunitats.xlsx
+++ b/content/plataformes/dadesref/entitats/Mancomunitats.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11940"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Mancomunitats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,16 +1211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1229,7 +1219,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6441149f88b340211fe514883ffe5417">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8071760aad25b486d5975211ba1b5e67" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -1446,24 +1436,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1471,7 +1454,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F74DCE85-E342-49BA-89C5-6DE88C0E29C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1488,4 +1471,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>